--- a/PROJETO_DASHBOARD.xlsx
+++ b/PROJETO_DASHBOARD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\Oficina\Portfólio\Bootcamp Ciencias de dados - Python 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7532F3-85A0-4108-89EA-D3B67F9C8AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556CCFD1-AF83-4A6C-99CF-5D8B802FB4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="0" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="123" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -3302,6 +3302,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="12"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3319,14 +3327,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="12"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3380,11 +3380,11 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF2E6DB4"/>
       <color rgb="FFF5F5F5"/>
       <color rgb="FF003791"/>
       <color rgb="FF00339A"/>
       <color rgb="FF0B00DE"/>
-      <color rgb="FF2E6DB4"/>
       <color rgb="FF3FAE8C"/>
       <color rgb="FF0072CE"/>
       <color rgb="FFF4C430"/>
@@ -3394,239 +3394,7 @@
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
-      <x14:dxfs count="16">
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF828282"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="4" tint="0.79998168889431442"/>
-              <bgColor theme="4" tint="0.79998168889431442"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFCCCCCC"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFCCCCCC"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFCCCCCC"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFCCCCCC"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="4" tint="0.59999389629810485"/>
-              <bgColor theme="4" tint="0.59999389629810485"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF828282"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor rgb="FFFFFFFF"/>
-              <bgColor rgb="FFFFFFFF"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFE0E0E0"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFE0E0E0"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFE0E0E0"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFE0E0E0"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor rgb="FFFFFFFF"/>
-              <bgColor rgb="FFFFFFFF"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFCCCCCC"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFCCCCCC"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFCCCCCC"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFCCCCCC"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
+      <x14:dxfs count="8">
         <dxf>
           <font>
             <color rgb="FF000000"/>
@@ -6586,6 +6354,7 @@
                 <a:ea typeface="Calibri"/>
                 <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>R$ 62.097,50</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="4000" b="1" cap="none" spc="0">
@@ -6873,7 +6642,7 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="pt-BR" sz="1200" b="1">
+                <a:rPr lang="pt-BR" sz="1400" b="1">
                   <a:solidFill>
                     <a:srgbClr val="F5F5F5"/>
                   </a:solidFill>
@@ -6883,7 +6652,7 @@
                 <a:t>Assinantes Apenas</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="pt-BR" sz="1200" b="1" baseline="0">
+                <a:rPr lang="pt-BR" sz="1400" b="1" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="F5F5F5"/>
                   </a:solidFill>
@@ -6892,7 +6661,7 @@
                 </a:rPr>
                 <a:t> Fortnite</a:t>
               </a:r>
-              <a:endParaRPr lang="pt-BR" sz="1200" b="1">
+              <a:endParaRPr lang="pt-BR" sz="1400" b="1">
                 <a:solidFill>
                   <a:srgbClr val="F5F5F5"/>
                 </a:solidFill>
@@ -7057,6 +6826,7 @@
                 <a:ea typeface="Calibri"/>
                 <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>295</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="4000" b="1" cap="none" spc="0">
@@ -7122,7 +6892,7 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="1">
+              <a:rPr lang="pt-BR" sz="1400" b="1">
                 <a:solidFill>
                   <a:srgbClr val="F5F5F5"/>
                 </a:solidFill>
@@ -7327,7 +7097,7 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="pt-BR" sz="1200" b="1">
+                <a:rPr lang="pt-BR" sz="1400" b="1">
                   <a:solidFill>
                     <a:srgbClr val="F5F5F5"/>
                   </a:solidFill>
@@ -7337,7 +7107,7 @@
                 <a:t>Assinantes</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="pt-BR" sz="1200" b="1" baseline="0">
+                <a:rPr lang="pt-BR" sz="1400" b="1" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="F5F5F5"/>
                   </a:solidFill>
@@ -7347,7 +7117,7 @@
                 <a:t> Apenas</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="pt-BR" sz="1200" b="1">
+                <a:rPr lang="pt-BR" sz="1400" b="1">
                   <a:solidFill>
                     <a:srgbClr val="F5F5F5"/>
                   </a:solidFill>
@@ -7626,8 +7396,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>163289</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="46" name="Plano">
@@ -7650,7 +7420,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7704,8 +7474,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="47" name="AutoRenovacao">
@@ -7728,7 +7498,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7782,8 +7552,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>163289</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="48" name="AddOn_Ubisoft">
@@ -7806,7 +7576,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7860,8 +7630,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="49" name="AddOn_Fortnite">
@@ -7884,7 +7654,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11928,222 +11698,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ECCAE196-EECB-4F40-8095-C913B8663C6E}" name="tbl_assinantes_plano" cacheId="123" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A26:B35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="2"/>
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Contagem de ID_Assinante" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDEBD374-46AD-4493-96ED-1E56F75CD25F}" name="tbl_faturamento_plano" cacheId="123" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A5:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Valor_Plano" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="3" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91B7A998-0AA4-4FAB-98D0-A21CA5551356}" name="tbl_add_on_cenarios" cacheId="123" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91B7A998-0AA4-4FAB-98D0-A21CA5551356}" name="tbl_add_on_cenarios" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A72:B77" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -12273,6 +11828,221 @@
           </reference>
           <reference field="9" count="1" selected="0">
             <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ECCAE196-EECB-4F40-8095-C913B8663C6E}" name="tbl_assinantes_plano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A26:B35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Contagem de ID_Assinante" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDEBD374-46AD-4493-96ED-1E56F75CD25F}" name="tbl_faturamento_plano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="A5:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Valor_Plano" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -23006,7 +22776,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="11">
@@ -23014,7 +22784,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="11">
@@ -23030,7 +22800,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="11">
@@ -23038,7 +22808,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="11">
@@ -23054,7 +22824,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="11">
@@ -23139,18 +22909,18 @@
     <row r="78" spans="1:2" ht="15" customHeight="1"/>
     <row r="79" spans="1:2" ht="15" customHeight="1"/>
     <row r="90" spans="7:10" ht="26.25" customHeight="1">
-      <c r="G90" s="35" t="s">
+      <c r="G90" s="39" t="s">
         <v>820</v>
       </c>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="37"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="41"/>
     </row>
     <row r="91" spans="7:10" ht="26.25" customHeight="1">
-      <c r="G91" s="38"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="40"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="44"/>
     </row>
     <row r="92" spans="7:10">
       <c r="G92" s="7"/>
@@ -23207,10 +22977,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F64D8A-AFE3-4937-9E1D-950194EBD694}">
-  <dimension ref="A1:N542"/>
+  <dimension ref="A1:P542"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23218,66 +22988,68 @@
     <col min="1" max="1" width="35.42578125" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="33" customFormat="1"/>
-    <row r="2" spans="1:14" s="33" customFormat="1" ht="57">
-      <c r="B2" s="44" t="s">
+    <row r="1" spans="1:16" s="33" customFormat="1"/>
+    <row r="2" spans="1:16" s="33" customFormat="1" ht="57">
+      <c r="B2" s="38" t="s">
         <v>828</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-    </row>
-    <row r="3" spans="1:14" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B3" s="42" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+    </row>
+    <row r="3" spans="1:16" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B3" s="36" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="31" customFormat="1">
+    <row r="4" spans="1:16" s="31" customFormat="1">
       <c r="A4" s="32"/>
     </row>
-    <row r="5" spans="1:14" s="31" customFormat="1">
+    <row r="5" spans="1:16" s="31" customFormat="1">
       <c r="A5" s="32"/>
     </row>
-    <row r="6" spans="1:14" s="31" customFormat="1">
+    <row r="6" spans="1:16" s="31" customFormat="1">
       <c r="A6" s="32"/>
     </row>
-    <row r="7" spans="1:14" s="31" customFormat="1">
+    <row r="7" spans="1:16" s="31" customFormat="1">
       <c r="A7" s="32"/>
     </row>
-    <row r="8" spans="1:14" s="31" customFormat="1">
+    <row r="8" spans="1:16" s="31" customFormat="1">
       <c r="A8" s="32"/>
     </row>
-    <row r="9" spans="1:14" s="31" customFormat="1">
+    <row r="9" spans="1:16" s="31" customFormat="1">
       <c r="A9" s="32"/>
     </row>
-    <row r="10" spans="1:14" s="31" customFormat="1">
+    <row r="10" spans="1:16" s="31" customFormat="1">
       <c r="A10" s="32"/>
     </row>
-    <row r="11" spans="1:14" s="31" customFormat="1">
+    <row r="11" spans="1:16" s="31" customFormat="1">
       <c r="A11" s="32"/>
     </row>
-    <row r="12" spans="1:14" s="31" customFormat="1">
+    <row r="12" spans="1:16" s="31" customFormat="1">
       <c r="A12" s="32"/>
     </row>
-    <row r="13" spans="1:14" s="31" customFormat="1">
+    <row r="13" spans="1:16" s="31" customFormat="1">
       <c r="A13" s="32"/>
     </row>
-    <row r="14" spans="1:14" s="31" customFormat="1">
+    <row r="14" spans="1:16" s="31" customFormat="1">
       <c r="A14" s="32"/>
     </row>
-    <row r="15" spans="1:14" s="31" customFormat="1">
+    <row r="15" spans="1:16" s="31" customFormat="1">
       <c r="A15" s="32"/>
     </row>
-    <row r="16" spans="1:14" s="31" customFormat="1">
+    <row r="16" spans="1:16" s="31" customFormat="1">
       <c r="A16" s="32"/>
     </row>
     <row r="17" spans="1:1" s="31" customFormat="1">
@@ -24860,11 +24632,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId2"/>
+        <x14:slicer r:id="rId3"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/PROJETO_DASHBOARD.xlsx
+++ b/PROJETO_DASHBOARD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\Oficina\Portfólio\Bootcamp Ciencias de dados - Python 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556CCFD1-AF83-4A6C-99CF-5D8B802FB4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10531CA-B8C6-44AA-9659-835A339859F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="0" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7337,7 +7337,7 @@
                 <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Total de Assinantes</a:t>
+              <a:t>Percentual de Assinantes</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -11698,6 +11698,120 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDEBD374-46AD-4493-96ED-1E56F75CD25F}" name="tbl_faturamento_plano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="A5:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Valor_Plano" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91B7A998-0AA4-4FAB-98D0-A21CA5551356}" name="tbl_add_on_cenarios" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A72:B77" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
@@ -11845,7 +11959,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ECCAE196-EECB-4F40-8095-C913B8663C6E}" name="tbl_assinantes_plano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A26:B35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
@@ -11934,120 +12048,6 @@
   <dataFields count="1">
     <dataField name="Contagem de ID_Assinante" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDEBD374-46AD-4493-96ED-1E56F75CD25F}" name="tbl_faturamento_plano" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A5:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Valor_Plano" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="3" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -22980,7 +22980,7 @@
   <dimension ref="A1:P542"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
